--- a/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T16:52:24+01:00</t>
+    <t>2023-03-15T11:12:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T11:12:20+01:00</t>
+    <t>2023-03-15T12:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T12:10:14+01:00</t>
+    <t>2023-03-15T13:47:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/www/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T13:47:26+01:00</t>
+    <t>2023-03-20T12:21:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -409,7 +409,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {null}</t>
+constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -798,7 +798,7 @@
  TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {f:type}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -850,7 +850,7 @@
 -	TRE_A03-ClasseDocument-CISIS, OID : 1.2.250.1.213.1.1.4.1
 -	TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J57-ClassCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {f:category}</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -948,7 +948,7 @@
 Reference contrainte à :
 - PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
 - Device,
-- Patient contrainte au profil FrPatient. {null}</t>
+- Patient contrainte au profil FrPatient. {f:author}</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -989,7 +989,7 @@
 constr-bind-authenticator:Cardinalité contrainte à [1..1]
 Référence contrainte au profil 
 - PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {null}</t>
+-  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -1173,7 +1173,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {null}</t>
+constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {f:securityLabel}</t>
   </si>
   <si>
     <t>Composition.confidentiality, Composition.meta.security</t>
@@ -1469,7 +1469,7 @@
 - TRE_A09-DICOMuidRegistry, OID : 1.2.840.10008.2.6.1
 - TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J60-FormatCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {f:content/f:format}</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1552,7 +1552,7 @@
 constr-bind-context-event:Nomenclatures utilisées :
 - CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5");
 - CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3").
-- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {null}</t>
+- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {f:context/f:event}</t>
   </si>
   <si>
     <t>Composition.event.code</t>
@@ -1612,8 +1612,7 @@
 constr-bind-ProducteurDoc-simplified:L’utilisation de cette nomenclature est recommandée mais non obligatoire (prefered) :
 -	TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 (lorsque l’auteur du document est un professionnel ou un équipement sous sa responsabilité)
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J61-HealthcareFacilityTypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé.
- {null}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:practiceSetting or f:context/f:facilityType}</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>
